--- a/ProgrammeData.xlsx
+++ b/ProgrammeData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9353" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9353" uniqueCount="632">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -1309,9 +1309,6 @@
     <t xml:space="preserve">C18GO</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">F29DS</t>
   </si>
   <si>
@@ -1340,9 +1337,6 @@
   </si>
   <si>
     <t xml:space="preserve">Industrial Project: Software Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">C19GS</t>
@@ -2059,11 +2053,11 @@
   </sheetPr>
   <dimension ref="A1:I1193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A765" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D784" activeCellId="0" sqref="D784"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.77"/>
@@ -21434,7 +21428,7 @@
         <v>12</v>
       </c>
       <c r="E770" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F770" s="0" t="n">
         <v>0</v>
@@ -21457,7 +21451,7 @@
         <v>12</v>
       </c>
       <c r="E771" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F771" s="0" t="n">
         <v>0</v>
@@ -21480,7 +21474,7 @@
         <v>12</v>
       </c>
       <c r="E772" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F772" s="0" t="n">
         <v>0</v>
@@ -21503,10 +21497,10 @@
         <v>11</v>
       </c>
       <c r="D773" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E773" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H773" s="0" t="s">
         <v>409</v>
@@ -21526,10 +21520,10 @@
         <v>11</v>
       </c>
       <c r="D774" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E774" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H774" s="0" t="s">
         <v>409</v>
@@ -21549,10 +21543,10 @@
         <v>11</v>
       </c>
       <c r="D775" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E775" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H775" s="0" t="s">
         <v>409</v>
@@ -21572,10 +21566,10 @@
         <v>11</v>
       </c>
       <c r="D776" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E776" s="0" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H776" s="0" t="s">
         <v>409</v>
@@ -21595,10 +21589,10 @@
         <v>11</v>
       </c>
       <c r="D777" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E777" s="0" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H777" s="0" t="s">
         <v>409</v>
@@ -21618,10 +21612,10 @@
         <v>11</v>
       </c>
       <c r="D778" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E778" s="0" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H778" s="0" t="s">
         <v>409</v>
@@ -21641,10 +21635,10 @@
         <v>11</v>
       </c>
       <c r="D779" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E779" s="0" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H779" s="0" t="s">
         <v>409</v>
@@ -21667,7 +21661,7 @@
         <v>12</v>
       </c>
       <c r="E780" s="0" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="H780" s="0" t="s">
         <v>409</v>
@@ -21690,7 +21684,7 @@
         <v>12</v>
       </c>
       <c r="E781" s="0" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="H781" s="0" t="s">
         <v>409</v>
@@ -21701,11 +21695,11 @@
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B782" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B782" s="0" t="s">
-        <v>431</v>
-      </c>
       <c r="C782" s="0" t="s">
         <v>11</v>
       </c>
@@ -21713,7 +21707,7 @@
         <v>12</v>
       </c>
       <c r="E782" s="0" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="H782" s="0" t="s">
         <v>409</v>
@@ -21724,11 +21718,11 @@
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B783" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="B783" s="0" t="s">
-        <v>433</v>
-      </c>
       <c r="C783" s="0" t="s">
         <v>11</v>
       </c>
@@ -21736,7 +21730,7 @@
         <v>12</v>
       </c>
       <c r="E783" s="0" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="H783" s="0" t="s">
         <v>409</v>
@@ -21747,19 +21741,19 @@
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B784" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B784" s="0" t="s">
-        <v>435</v>
-      </c>
       <c r="C784" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D784" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E784" s="0" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="H784" s="0" t="s">
         <v>409</v>
@@ -21770,19 +21764,19 @@
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B785" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="B785" s="0" t="s">
-        <v>437</v>
-      </c>
       <c r="C785" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D785" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E785" s="0" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="H785" s="0" t="s">
         <v>409</v>
@@ -21793,19 +21787,19 @@
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B786" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B786" s="0" t="s">
-        <v>439</v>
-      </c>
       <c r="C786" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D786" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E786" s="0" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="H786" s="0" t="s">
         <v>409</v>
@@ -21828,7 +21822,7 @@
         <v>12</v>
       </c>
       <c r="E787" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H787" s="0" t="s">
         <v>409</v>
@@ -21839,10 +21833,10 @@
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C788" s="0" t="s">
         <v>11</v>
@@ -21851,7 +21845,7 @@
         <v>12</v>
       </c>
       <c r="E788" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H788" s="0" t="s">
         <v>409</v>
@@ -21874,7 +21868,7 @@
         <v>12</v>
       </c>
       <c r="E789" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H789" s="0" t="s">
         <v>409</v>
@@ -21897,7 +21891,7 @@
         <v>12</v>
       </c>
       <c r="E790" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H790" s="0" t="s">
         <v>409</v>
@@ -21908,19 +21902,19 @@
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C791" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D791" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E791" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H791" s="0" t="s">
         <v>409</v>
@@ -21931,19 +21925,19 @@
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C792" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D792" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E792" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H792" s="0" t="s">
         <v>409</v>
@@ -21954,19 +21948,19 @@
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C793" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D793" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E793" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H793" s="0" t="s">
         <v>409</v>
@@ -21977,7 +21971,7 @@
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B794" s="0" t="s">
         <v>366</v>
@@ -21986,10 +21980,10 @@
         <v>11</v>
       </c>
       <c r="D794" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E794" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H794" s="0" t="s">
         <v>409</v>
@@ -22000,19 +21994,19 @@
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C795" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D795" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E795" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H795" s="0" t="s">
         <v>409</v>
@@ -22023,19 +22017,19 @@
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C796" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D796" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E796" s="0" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H796" s="0" t="s">
         <v>409</v>
@@ -22069,10 +22063,10 @@
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D798" s="0" t="s">
         <v>23</v>
@@ -22101,7 +22095,7 @@
         <v>23</v>
       </c>
       <c r="E799" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F799" s="0" t="n">
         <v>0</v>
@@ -22124,7 +22118,7 @@
         <v>23</v>
       </c>
       <c r="E800" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F800" s="0" t="n">
         <v>0</v>
@@ -22138,16 +22132,16 @@
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D801" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E801" s="0" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="F801" s="0" t="n">
         <v>0</v>
@@ -22161,33 +22155,33 @@
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B802" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C802" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D802" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E802" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H802" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="B802" s="0" t="s">
+      <c r="I802" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="C802" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D802" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E802" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H802" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="I802" s="0" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C803" s="0" t="s">
         <v>11</v>
@@ -22199,47 +22193,47 @@
         <v>12</v>
       </c>
       <c r="H803" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I803" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B804" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C804" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D804" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E804" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F804" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G804" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B804" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="C804" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D804" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E804" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F804" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G804" s="0" t="s">
-        <v>466</v>
-      </c>
       <c r="H804" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I804" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C805" s="0" t="s">
         <v>46</v>
@@ -22254,21 +22248,21 @@
         <v>12</v>
       </c>
       <c r="G805" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H805" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I805" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C806" s="0" t="s">
         <v>11</v>
@@ -22280,18 +22274,18 @@
         <v>12</v>
       </c>
       <c r="H806" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I806" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C807" s="0" t="s">
         <v>11</v>
@@ -22303,39 +22297,39 @@
         <v>12</v>
       </c>
       <c r="H807" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I807" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B808" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C808" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D808" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E808" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F808" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G808" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B808" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="C808" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D808" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E808" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F808" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G808" s="0" t="s">
-        <v>475</v>
-      </c>
       <c r="H808" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I808" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22343,7 +22337,7 @@
         <v>84</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C809" s="0" t="s">
         <v>46</v>
@@ -22358,13 +22352,13 @@
         <v>12</v>
       </c>
       <c r="G809" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H809" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I809" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22384,18 +22378,18 @@
         <v>12</v>
       </c>
       <c r="H810" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I810" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C811" s="0" t="s">
         <v>11</v>
@@ -22407,10 +22401,10 @@
         <v>12</v>
       </c>
       <c r="H811" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I811" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22430,10 +22424,10 @@
         <v>12</v>
       </c>
       <c r="H812" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I812" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22453,10 +22447,10 @@
         <v>12</v>
       </c>
       <c r="H813" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I813" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22476,10 +22470,10 @@
         <v>23</v>
       </c>
       <c r="H814" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I814" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22499,10 +22493,10 @@
         <v>23</v>
       </c>
       <c r="H815" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I815" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22522,10 +22516,10 @@
         <v>23</v>
       </c>
       <c r="H816" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I816" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22545,10 +22539,10 @@
         <v>23</v>
       </c>
       <c r="H817" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I817" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22568,10 +22562,10 @@
         <v>32</v>
       </c>
       <c r="H818" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I818" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22591,10 +22585,10 @@
         <v>32</v>
       </c>
       <c r="H819" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I819" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22614,10 +22608,10 @@
         <v>32</v>
       </c>
       <c r="H820" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I820" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22637,10 +22631,10 @@
         <v>32</v>
       </c>
       <c r="H821" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I821" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22660,18 +22654,18 @@
         <v>41</v>
       </c>
       <c r="H822" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I822" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C823" s="0" t="s">
         <v>11</v>
@@ -22683,10 +22677,10 @@
         <v>41</v>
       </c>
       <c r="H823" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I823" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22709,13 +22703,13 @@
         <v>23</v>
       </c>
       <c r="G824" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H824" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I824" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22738,13 +22732,13 @@
         <v>23</v>
       </c>
       <c r="G825" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H825" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I825" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22767,13 +22761,13 @@
         <v>23</v>
       </c>
       <c r="G826" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H826" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I826" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22796,13 +22790,13 @@
         <v>23</v>
       </c>
       <c r="G827" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H827" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I827" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22825,13 +22819,13 @@
         <v>23</v>
       </c>
       <c r="G828" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H828" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I828" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22854,13 +22848,13 @@
         <v>23</v>
       </c>
       <c r="G829" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H829" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I829" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22883,13 +22877,13 @@
         <v>23</v>
       </c>
       <c r="G830" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H830" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I830" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22912,13 +22906,13 @@
         <v>23</v>
       </c>
       <c r="G831" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H831" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I831" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22941,21 +22935,21 @@
         <v>23</v>
       </c>
       <c r="G832" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H832" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I832" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>11</v>
@@ -22967,18 +22961,18 @@
         <v>199</v>
       </c>
       <c r="H833" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I833" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>11</v>
@@ -22990,18 +22984,18 @@
         <v>199</v>
       </c>
       <c r="H834" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I834" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>11</v>
@@ -23013,18 +23007,18 @@
         <v>199</v>
       </c>
       <c r="H835" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I835" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>11</v>
@@ -23036,10 +23030,10 @@
         <v>199</v>
       </c>
       <c r="H836" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I836" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23059,10 +23053,10 @@
         <v>12</v>
       </c>
       <c r="H837" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I837" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23082,10 +23076,10 @@
         <v>12</v>
       </c>
       <c r="H838" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I838" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23105,10 +23099,10 @@
         <v>12</v>
       </c>
       <c r="H839" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I839" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23128,10 +23122,10 @@
         <v>12</v>
       </c>
       <c r="H840" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I840" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23151,10 +23145,10 @@
         <v>23</v>
       </c>
       <c r="H841" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I841" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23174,10 +23168,10 @@
         <v>23</v>
       </c>
       <c r="H842" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I842" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23197,10 +23191,10 @@
         <v>23</v>
       </c>
       <c r="H843" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I843" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23220,10 +23214,10 @@
         <v>23</v>
       </c>
       <c r="H844" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I844" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23243,10 +23237,10 @@
         <v>32</v>
       </c>
       <c r="H845" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I845" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23266,10 +23260,10 @@
         <v>32</v>
       </c>
       <c r="H846" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I846" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23289,10 +23283,10 @@
         <v>32</v>
       </c>
       <c r="H847" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I847" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23312,10 +23306,10 @@
         <v>32</v>
       </c>
       <c r="H848" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I848" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23335,10 +23329,10 @@
         <v>41</v>
       </c>
       <c r="H849" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I849" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23358,10 +23352,10 @@
         <v>41</v>
       </c>
       <c r="H850" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I850" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23384,13 +23378,13 @@
         <v>23</v>
       </c>
       <c r="G851" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H851" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I851" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23413,13 +23407,13 @@
         <v>23</v>
       </c>
       <c r="G852" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H852" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I852" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23442,13 +23436,13 @@
         <v>23</v>
       </c>
       <c r="G853" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H853" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I853" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23471,13 +23465,13 @@
         <v>23</v>
       </c>
       <c r="G854" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H854" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I854" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23500,13 +23494,13 @@
         <v>23</v>
       </c>
       <c r="G855" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H855" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I855" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23529,13 +23523,13 @@
         <v>23</v>
       </c>
       <c r="G856" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H856" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I856" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23558,21 +23552,21 @@
         <v>23</v>
       </c>
       <c r="G857" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H857" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I857" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>11</v>
@@ -23584,18 +23578,18 @@
         <v>199</v>
       </c>
       <c r="H858" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I858" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>11</v>
@@ -23607,15 +23601,15 @@
         <v>199</v>
       </c>
       <c r="H859" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I859" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B860" s="0" t="s">
         <v>157</v>
@@ -23633,18 +23627,18 @@
         <v>23</v>
       </c>
       <c r="G860" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H860" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I860" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B861" s="0" t="s">
         <v>159</v>
@@ -23662,18 +23656,18 @@
         <v>23</v>
       </c>
       <c r="G861" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H861" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I861" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B862" s="0" t="s">
         <v>161</v>
@@ -23691,18 +23685,18 @@
         <v>23</v>
       </c>
       <c r="G862" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H862" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I862" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B863" s="0" t="s">
         <v>204</v>
@@ -23720,18 +23714,18 @@
         <v>23</v>
       </c>
       <c r="G863" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H863" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I863" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B864" s="0" t="s">
         <v>205</v>
@@ -23749,21 +23743,21 @@
         <v>23</v>
       </c>
       <c r="G864" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H864" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I864" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>46</v>
@@ -23778,18 +23772,18 @@
         <v>23</v>
       </c>
       <c r="G865" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H865" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I865" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B866" s="0" t="s">
         <v>171</v>
@@ -23807,18 +23801,18 @@
         <v>23</v>
       </c>
       <c r="G866" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H866" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I866" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B867" s="0" t="s">
         <v>45</v>
@@ -23833,18 +23827,18 @@
         <v>12</v>
       </c>
       <c r="H867" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I867" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>11</v>
@@ -23856,15 +23850,15 @@
         <v>12</v>
       </c>
       <c r="H868" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I868" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B869" s="0" t="s">
         <v>124</v>
@@ -23882,18 +23876,18 @@
         <v>23</v>
       </c>
       <c r="G869" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H869" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I869" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B870" s="0" t="s">
         <v>43</v>
@@ -23911,18 +23905,18 @@
         <v>23</v>
       </c>
       <c r="G870" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H870" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I870" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B871" s="0" t="s">
         <v>375</v>
@@ -23940,13 +23934,13 @@
         <v>23</v>
       </c>
       <c r="G871" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H871" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I871" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23969,21 +23963,21 @@
         <v>23</v>
       </c>
       <c r="G872" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H872" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I872" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>11</v>
@@ -23995,15 +23989,15 @@
         <v>12</v>
       </c>
       <c r="H873" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I873" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B874" s="0" t="s">
         <v>157</v>
@@ -24021,13 +24015,13 @@
         <v>32</v>
       </c>
       <c r="G874" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H874" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I874" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24050,18 +24044,18 @@
         <v>32</v>
       </c>
       <c r="G875" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H875" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I875" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B876" s="0" t="s">
         <v>161</v>
@@ -24079,18 +24073,18 @@
         <v>32</v>
       </c>
       <c r="G876" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H876" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I876" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B877" s="0" t="s">
         <v>171</v>
@@ -24108,13 +24102,13 @@
         <v>32</v>
       </c>
       <c r="G877" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H877" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I877" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24122,7 +24116,7 @@
         <v>347</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>46</v>
@@ -24137,21 +24131,21 @@
         <v>32</v>
       </c>
       <c r="G878" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H878" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I878" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C879" s="0" t="s">
         <v>46</v>
@@ -24166,18 +24160,18 @@
         <v>32</v>
       </c>
       <c r="G879" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H879" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I879" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B880" s="0" t="s">
         <v>184</v>
@@ -24195,21 +24189,21 @@
         <v>32</v>
       </c>
       <c r="G880" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H880" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I880" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C881" s="0" t="s">
         <v>46</v>
@@ -24224,13 +24218,13 @@
         <v>32</v>
       </c>
       <c r="G881" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H881" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I881" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24250,18 +24244,18 @@
         <v>12</v>
       </c>
       <c r="H882" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I882" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C883" s="0" t="s">
         <v>11</v>
@@ -24273,10 +24267,10 @@
         <v>12</v>
       </c>
       <c r="H883" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I883" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24284,7 +24278,7 @@
         <v>147</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C884" s="0" t="s">
         <v>11</v>
@@ -24296,15 +24290,15 @@
         <v>12</v>
       </c>
       <c r="H884" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I884" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B885" s="0" t="s">
         <v>366</v>
@@ -24319,15 +24313,15 @@
         <v>12</v>
       </c>
       <c r="H885" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I885" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B886" s="0" t="s">
         <v>45</v>
@@ -24342,18 +24336,18 @@
         <v>23</v>
       </c>
       <c r="H886" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I886" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C887" s="0" t="s">
         <v>11</v>
@@ -24365,15 +24359,15 @@
         <v>23</v>
       </c>
       <c r="H887" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I887" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B888" s="0" t="s">
         <v>124</v>
@@ -24391,13 +24385,13 @@
         <v>23</v>
       </c>
       <c r="G888" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H888" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I888" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24420,18 +24414,18 @@
         <v>23</v>
       </c>
       <c r="G889" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H889" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I889" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B890" s="0" t="s">
         <v>43</v>
@@ -24449,18 +24443,18 @@
         <v>23</v>
       </c>
       <c r="G890" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H890" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I890" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B891" s="0" t="s">
         <v>132</v>
@@ -24478,13 +24472,13 @@
         <v>23</v>
       </c>
       <c r="G891" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H891" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I891" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24504,10 +24498,10 @@
         <v>12</v>
       </c>
       <c r="H892" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I892" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24527,10 +24521,10 @@
         <v>12</v>
       </c>
       <c r="H893" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I893" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24538,7 +24532,7 @@
         <v>372</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C894" s="0" t="s">
         <v>11</v>
@@ -24550,18 +24544,18 @@
         <v>12</v>
       </c>
       <c r="H894" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I894" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C895" s="0" t="s">
         <v>11</v>
@@ -24573,18 +24567,18 @@
         <v>12</v>
       </c>
       <c r="H895" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I895" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C896" s="0" t="s">
         <v>11</v>
@@ -24596,15 +24590,15 @@
         <v>23</v>
       </c>
       <c r="H896" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I896" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B897" s="0" t="s">
         <v>161</v>
@@ -24622,18 +24616,18 @@
         <v>32</v>
       </c>
       <c r="G897" s="0" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H897" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I897" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B898" s="0" t="s">
         <v>205</v>
@@ -24651,21 +24645,21 @@
         <v>32</v>
       </c>
       <c r="G898" s="0" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H898" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I898" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C899" s="0" t="s">
         <v>46</v>
@@ -24680,18 +24674,18 @@
         <v>32</v>
       </c>
       <c r="G899" s="0" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H899" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I899" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B900" s="0" t="s">
         <v>171</v>
@@ -24709,21 +24703,21 @@
         <v>32</v>
       </c>
       <c r="G900" s="0" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H900" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I900" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>46</v>
@@ -24738,13 +24732,13 @@
         <v>32</v>
       </c>
       <c r="G901" s="0" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H901" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I901" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24764,10 +24758,10 @@
         <v>12</v>
       </c>
       <c r="H902" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I902" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24787,10 +24781,10 @@
         <v>12</v>
       </c>
       <c r="H903" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I903" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24810,18 +24804,18 @@
         <v>12</v>
       </c>
       <c r="H904" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I904" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C905" s="0" t="s">
         <v>46</v>
@@ -24836,13 +24830,13 @@
         <v>12</v>
       </c>
       <c r="G905" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H905" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I905" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24865,21 +24859,21 @@
         <v>12</v>
       </c>
       <c r="G906" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H906" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I906" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C907" s="0" t="s">
         <v>46</v>
@@ -24894,18 +24888,18 @@
         <v>12</v>
       </c>
       <c r="G907" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H907" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I907" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B908" s="0" t="s">
         <v>45</v>
@@ -24920,18 +24914,18 @@
         <v>23</v>
       </c>
       <c r="H908" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I908" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C909" s="0" t="s">
         <v>11</v>
@@ -24943,15 +24937,15 @@
         <v>23</v>
       </c>
       <c r="H909" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I909" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B910" s="0" t="s">
         <v>124</v>
@@ -24969,13 +24963,13 @@
         <v>23</v>
       </c>
       <c r="G910" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H910" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I910" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24998,18 +24992,18 @@
         <v>23</v>
       </c>
       <c r="G911" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H911" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I911" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B912" s="0" t="s">
         <v>43</v>
@@ -25027,18 +25021,18 @@
         <v>23</v>
       </c>
       <c r="G912" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H912" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I912" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B913" s="0" t="s">
         <v>132</v>
@@ -25056,13 +25050,13 @@
         <v>23</v>
       </c>
       <c r="G913" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H913" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I913" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25082,10 +25076,10 @@
         <v>12</v>
       </c>
       <c r="H914" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I914" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25108,13 +25102,13 @@
         <v>32</v>
       </c>
       <c r="G915" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="H915" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="H915" s="0" t="s">
-        <v>533</v>
-      </c>
       <c r="I915" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25122,7 +25116,7 @@
         <v>147</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C916" s="0" t="s">
         <v>46</v>
@@ -25137,18 +25131,18 @@
         <v>32</v>
       </c>
       <c r="G916" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="H916" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="H916" s="0" t="s">
-        <v>533</v>
-      </c>
       <c r="I916" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B917" s="0" t="s">
         <v>366</v>
@@ -25166,21 +25160,21 @@
         <v>32</v>
       </c>
       <c r="G917" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="H917" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="H917" s="0" t="s">
-        <v>533</v>
-      </c>
       <c r="I917" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>46</v>
@@ -25195,21 +25189,21 @@
         <v>32</v>
       </c>
       <c r="G918" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="H918" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="H918" s="0" t="s">
-        <v>533</v>
-      </c>
       <c r="I918" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>11</v>
@@ -25221,15 +25215,15 @@
         <v>23</v>
       </c>
       <c r="H919" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I919" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B920" s="0" t="s">
         <v>161</v>
@@ -25247,18 +25241,18 @@
         <v>32</v>
       </c>
       <c r="G920" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H920" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I920" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B921" s="0" t="s">
         <v>205</v>
@@ -25276,21 +25270,21 @@
         <v>32</v>
       </c>
       <c r="G921" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H921" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I921" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>46</v>
@@ -25305,18 +25299,18 @@
         <v>32</v>
       </c>
       <c r="G922" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H922" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I922" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B923" s="0" t="s">
         <v>171</v>
@@ -25334,21 +25328,21 @@
         <v>32</v>
       </c>
       <c r="G923" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H923" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I923" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>46</v>
@@ -25363,13 +25357,13 @@
         <v>32</v>
       </c>
       <c r="G924" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H924" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I924" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25389,15 +25383,15 @@
         <v>12</v>
       </c>
       <c r="H925" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I925" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B926" s="0" t="s">
         <v>161</v>
@@ -25412,15 +25406,15 @@
         <v>12</v>
       </c>
       <c r="H926" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I926" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B927" s="0" t="s">
         <v>171</v>
@@ -25435,18 +25429,18 @@
         <v>12</v>
       </c>
       <c r="H927" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I927" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C928" s="0" t="s">
         <v>11</v>
@@ -25458,15 +25452,15 @@
         <v>12</v>
       </c>
       <c r="H928" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I928" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B929" s="0" t="s">
         <v>184</v>
@@ -25481,10 +25475,10 @@
         <v>12</v>
       </c>
       <c r="H929" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I929" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25492,7 +25486,7 @@
         <v>347</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C930" s="0" t="s">
         <v>11</v>
@@ -25504,18 +25498,18 @@
         <v>12</v>
       </c>
       <c r="H930" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I930" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>11</v>
@@ -25527,18 +25521,18 @@
         <v>12</v>
       </c>
       <c r="H931" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I931" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C932" s="0" t="s">
         <v>11</v>
@@ -25550,15 +25544,15 @@
         <v>12</v>
       </c>
       <c r="H932" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I932" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B933" s="0" t="s">
         <v>45</v>
@@ -25573,18 +25567,18 @@
         <v>12</v>
       </c>
       <c r="H933" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I933" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>11</v>
@@ -25596,15 +25590,15 @@
         <v>12</v>
       </c>
       <c r="H934" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I934" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B935" s="0" t="s">
         <v>124</v>
@@ -25622,18 +25616,18 @@
         <v>12</v>
       </c>
       <c r="G935" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H935" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I935" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B936" s="0" t="s">
         <v>43</v>
@@ -25651,44 +25645,44 @@
         <v>12</v>
       </c>
       <c r="G936" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H936" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I936" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C937" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D937" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E937" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H937" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="B937" s="0" t="s">
+      <c r="I937" s="0" t="s">
         <v>543</v>
-      </c>
-      <c r="C937" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D937" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E937" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H937" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="I937" s="0" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C938" s="0" t="s">
         <v>11</v>
@@ -25700,10 +25694,10 @@
         <v>12</v>
       </c>
       <c r="H938" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I938" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25711,7 +25705,7 @@
         <v>221</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C939" s="0" t="s">
         <v>46</v>
@@ -25726,18 +25720,18 @@
         <v>23</v>
       </c>
       <c r="G939" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H939" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I939" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B940" s="0" t="s">
         <v>187</v>
@@ -25755,21 +25749,21 @@
         <v>23</v>
       </c>
       <c r="G940" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H940" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I940" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>46</v>
@@ -25784,21 +25778,21 @@
         <v>23</v>
       </c>
       <c r="G941" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H941" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I941" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>46</v>
@@ -25813,21 +25807,21 @@
         <v>23</v>
       </c>
       <c r="G942" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H942" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I942" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>46</v>
@@ -25842,21 +25836,21 @@
         <v>23</v>
       </c>
       <c r="G943" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H943" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I943" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>11</v>
@@ -25868,18 +25862,18 @@
         <v>12</v>
       </c>
       <c r="H944" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I944" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>11</v>
@@ -25891,15 +25885,15 @@
         <v>12</v>
       </c>
       <c r="H945" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I945" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B946" s="0" t="s">
         <v>157</v>
@@ -25917,18 +25911,18 @@
         <v>23</v>
       </c>
       <c r="G946" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H946" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I946" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B947" s="0" t="s">
         <v>161</v>
@@ -25946,21 +25940,21 @@
         <v>23</v>
       </c>
       <c r="G947" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H947" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I947" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>46</v>
@@ -25975,18 +25969,18 @@
         <v>23</v>
       </c>
       <c r="G948" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H948" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I948" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B949" s="0" t="s">
         <v>366</v>
@@ -26004,18 +25998,18 @@
         <v>23</v>
       </c>
       <c r="G949" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H949" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I949" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B950" s="0" t="s">
         <v>122</v>
@@ -26030,18 +26024,18 @@
         <v>12</v>
       </c>
       <c r="H950" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I950" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B951" s="0" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>11</v>
@@ -26053,15 +26047,15 @@
         <v>12</v>
       </c>
       <c r="H951" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I951" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B952" s="0" t="s">
         <v>132</v>
@@ -26076,18 +26070,18 @@
         <v>12</v>
       </c>
       <c r="H952" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I952" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>11</v>
@@ -26099,15 +26093,15 @@
         <v>12</v>
       </c>
       <c r="H953" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I953" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B954" s="0" t="s">
         <v>159</v>
@@ -26122,18 +26116,18 @@
         <v>12</v>
       </c>
       <c r="H954" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I954" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B955" s="0" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>11</v>
@@ -26145,18 +26139,18 @@
         <v>12</v>
       </c>
       <c r="H955" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I955" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B956" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>11</v>
@@ -26168,18 +26162,18 @@
         <v>12</v>
       </c>
       <c r="H956" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I956" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>11</v>
@@ -26191,10 +26185,10 @@
         <v>12</v>
       </c>
       <c r="H957" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I957" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26214,18 +26208,18 @@
         <v>12</v>
       </c>
       <c r="H958" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I958" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>46</v>
@@ -26240,13 +26234,13 @@
         <v>32</v>
       </c>
       <c r="G959" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H959" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I959" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26254,7 +26248,7 @@
         <v>147</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>46</v>
@@ -26269,13 +26263,13 @@
         <v>32</v>
       </c>
       <c r="G960" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H960" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I960" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26298,13 +26292,13 @@
         <v>32</v>
       </c>
       <c r="G961" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H961" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I961" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26312,7 +26306,7 @@
         <v>166</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>46</v>
@@ -26327,18 +26321,18 @@
         <v>32</v>
       </c>
       <c r="G962" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H962" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I962" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B963" s="0" t="s">
         <v>122</v>
@@ -26353,15 +26347,15 @@
         <v>23</v>
       </c>
       <c r="H963" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I963" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B964" s="0" t="s">
         <v>132</v>
@@ -26376,15 +26370,15 @@
         <v>23</v>
       </c>
       <c r="H964" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I964" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B965" s="0" t="s">
         <v>45</v>
@@ -26402,18 +26396,18 @@
         <v>23</v>
       </c>
       <c r="G965" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H965" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I965" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B966" s="0" t="s">
         <v>124</v>
@@ -26431,18 +26425,18 @@
         <v>23</v>
       </c>
       <c r="G966" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H966" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I966" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B967" s="0" t="s">
         <v>43</v>
@@ -26460,21 +26454,21 @@
         <v>23</v>
       </c>
       <c r="G967" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H967" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I967" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>46</v>
@@ -26489,13 +26483,13 @@
         <v>23</v>
       </c>
       <c r="G968" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H968" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I968" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26515,10 +26509,10 @@
         <v>12</v>
       </c>
       <c r="H969" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I969" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26538,10 +26532,10 @@
         <v>12</v>
       </c>
       <c r="H970" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I970" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26549,7 +26543,7 @@
         <v>372</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>11</v>
@@ -26561,18 +26555,18 @@
         <v>12</v>
       </c>
       <c r="H971" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I971" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>11</v>
@@ -26584,18 +26578,18 @@
         <v>12</v>
       </c>
       <c r="H972" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I972" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>11</v>
@@ -26607,15 +26601,15 @@
         <v>23</v>
       </c>
       <c r="H973" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I973" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B974" s="0" t="s">
         <v>366</v>
@@ -26630,15 +26624,15 @@
         <v>23</v>
       </c>
       <c r="H974" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I974" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B975" s="0" t="s">
         <v>159</v>
@@ -26656,18 +26650,18 @@
         <v>23</v>
       </c>
       <c r="G975" s="0" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H975" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I975" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B976" s="0" t="s">
         <v>161</v>
@@ -26685,47 +26679,47 @@
         <v>23</v>
       </c>
       <c r="G976" s="0" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H976" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I976" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B977" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C977" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D977" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E977" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F977" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G977" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="H977" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="C977" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D977" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E977" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F977" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G977" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="H977" s="0" t="s">
-        <v>567</v>
-      </c>
       <c r="I977" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B978" s="0" t="s">
         <v>171</v>
@@ -26743,21 +26737,21 @@
         <v>23</v>
       </c>
       <c r="G978" s="0" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H978" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I978" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>11</v>
@@ -26769,10 +26763,10 @@
         <v>12</v>
       </c>
       <c r="H979" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I979" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26792,18 +26786,18 @@
         <v>12</v>
       </c>
       <c r="H980" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I980" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>46</v>
@@ -26818,13 +26812,13 @@
         <v>23</v>
       </c>
       <c r="G981" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H981" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I981" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26847,13 +26841,13 @@
         <v>23</v>
       </c>
       <c r="G982" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H982" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I982" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26876,13 +26870,13 @@
         <v>23</v>
       </c>
       <c r="G983" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H983" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I983" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26890,7 +26884,7 @@
         <v>113</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>46</v>
@@ -26905,18 +26899,18 @@
         <v>23</v>
       </c>
       <c r="G984" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H984" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I984" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B985" s="0" t="s">
         <v>122</v>
@@ -26931,15 +26925,15 @@
         <v>23</v>
       </c>
       <c r="H985" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I985" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>132</v>
@@ -26954,15 +26948,15 @@
         <v>23</v>
       </c>
       <c r="H986" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I986" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B987" s="0" t="s">
         <v>45</v>
@@ -26980,18 +26974,18 @@
         <v>23</v>
       </c>
       <c r="G987" s="0" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H987" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I987" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B988" s="0" t="s">
         <v>124</v>
@@ -27009,18 +27003,18 @@
         <v>23</v>
       </c>
       <c r="G988" s="0" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H988" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I988" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B989" s="0" t="s">
         <v>43</v>
@@ -27038,50 +27032,50 @@
         <v>23</v>
       </c>
       <c r="G989" s="0" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H989" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I989" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B990" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C990" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D990" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E990" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F990" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G990" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="B990" s="0" t="s">
+      <c r="H990" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="C990" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D990" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E990" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F990" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G990" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="H990" s="0" t="s">
-        <v>574</v>
-      </c>
       <c r="I990" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>11</v>
@@ -27093,10 +27087,10 @@
         <v>12</v>
       </c>
       <c r="H991" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I991" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27116,10 +27110,10 @@
         <v>12</v>
       </c>
       <c r="H992" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I992" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27127,7 +27121,7 @@
         <v>156</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>46</v>
@@ -27142,13 +27136,13 @@
         <v>23</v>
       </c>
       <c r="G993" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H993" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I993" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27156,7 +27150,7 @@
         <v>166</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>46</v>
@@ -27171,13 +27165,13 @@
         <v>23</v>
       </c>
       <c r="G994" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H994" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I994" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27200,13 +27194,13 @@
         <v>23</v>
       </c>
       <c r="G995" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H995" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I995" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27214,7 +27208,7 @@
         <v>147</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>46</v>
@@ -27229,21 +27223,21 @@
         <v>23</v>
       </c>
       <c r="G996" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H996" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I996" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>11</v>
@@ -27255,15 +27249,15 @@
         <v>23</v>
       </c>
       <c r="H997" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I997" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B998" s="0" t="s">
         <v>366</v>
@@ -27278,15 +27272,15 @@
         <v>23</v>
       </c>
       <c r="H998" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I998" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B999" s="0" t="s">
         <v>159</v>
@@ -27304,18 +27298,18 @@
         <v>23</v>
       </c>
       <c r="G999" s="0" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H999" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I999" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1000" s="0" t="s">
         <v>161</v>
@@ -27333,21 +27327,21 @@
         <v>23</v>
       </c>
       <c r="G1000" s="0" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H1000" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I1000" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>46</v>
@@ -27362,18 +27356,18 @@
         <v>23</v>
       </c>
       <c r="G1001" s="0" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H1001" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I1001" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1002" s="0" t="s">
         <v>171</v>
@@ -27391,21 +27385,21 @@
         <v>23</v>
       </c>
       <c r="G1002" s="0" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H1002" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I1002" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>11</v>
@@ -27417,15 +27411,15 @@
         <v>12</v>
       </c>
       <c r="H1003" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1003" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1004" s="0" t="s">
         <v>187</v>
@@ -27440,15 +27434,15 @@
         <v>12</v>
       </c>
       <c r="H1004" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1004" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1005" s="0" t="s">
         <v>45</v>
@@ -27466,18 +27460,18 @@
         <v>23</v>
       </c>
       <c r="G1005" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1005" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1005" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B1006" s="0" t="s">
         <v>122</v>
@@ -27495,18 +27489,18 @@
         <v>23</v>
       </c>
       <c r="G1006" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1006" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1006" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1007" s="0" t="s">
         <v>132</v>
@@ -27524,18 +27518,18 @@
         <v>23</v>
       </c>
       <c r="G1007" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1007" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1007" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B1008" s="0" t="s">
         <v>375</v>
@@ -27553,18 +27547,18 @@
         <v>23</v>
       </c>
       <c r="G1008" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1008" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1008" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1009" s="0" t="s">
         <v>161</v>
@@ -27579,18 +27573,18 @@
         <v>12</v>
       </c>
       <c r="H1009" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1009" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>11</v>
@@ -27602,15 +27596,15 @@
         <v>12</v>
       </c>
       <c r="H1010" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1010" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1011" s="0" t="s">
         <v>205</v>
@@ -27625,10 +27619,10 @@
         <v>12</v>
       </c>
       <c r="H1011" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1011" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27651,21 +27645,21 @@
         <v>12</v>
       </c>
       <c r="G1012" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1012" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1012" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>46</v>
@@ -27680,13 +27674,13 @@
         <v>12</v>
       </c>
       <c r="G1013" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1013" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1013" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27709,21 +27703,21 @@
         <v>12</v>
       </c>
       <c r="G1014" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1014" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1014" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>46</v>
@@ -27738,18 +27732,18 @@
         <v>12</v>
       </c>
       <c r="G1015" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1015" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1015" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1016" s="0" t="s">
         <v>184</v>
@@ -27767,21 +27761,21 @@
         <v>12</v>
       </c>
       <c r="G1016" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1016" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I1016" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1017" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>11</v>
@@ -27793,10 +27787,10 @@
         <v>12</v>
       </c>
       <c r="H1017" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1017" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27816,10 +27810,10 @@
         <v>12</v>
       </c>
       <c r="H1018" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1018" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27839,10 +27833,10 @@
         <v>12</v>
       </c>
       <c r="H1019" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1019" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27865,13 +27859,13 @@
         <v>12</v>
       </c>
       <c r="G1020" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1020" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1020" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27894,18 +27888,18 @@
         <v>12</v>
       </c>
       <c r="G1021" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1021" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1021" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B1022" s="0" t="s">
         <v>366</v>
@@ -27923,21 +27917,21 @@
         <v>12</v>
       </c>
       <c r="G1022" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1022" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1022" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1023" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1023" s="0" t="s">
         <v>11</v>
@@ -27949,15 +27943,15 @@
         <v>23</v>
       </c>
       <c r="H1023" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1023" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1024" s="0" t="s">
         <v>187</v>
@@ -27972,15 +27966,15 @@
         <v>23</v>
       </c>
       <c r="H1024" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1024" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1025" s="0" t="s">
         <v>45</v>
@@ -27998,18 +27992,18 @@
         <v>23</v>
       </c>
       <c r="G1025" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H1025" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1025" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B1026" s="0" t="s">
         <v>122</v>
@@ -28027,21 +28021,21 @@
         <v>23</v>
       </c>
       <c r="G1026" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H1026" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1026" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>46</v>
@@ -28056,18 +28050,18 @@
         <v>23</v>
       </c>
       <c r="G1027" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H1027" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1027" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1028" s="0" t="s">
         <v>132</v>
@@ -28085,13 +28079,13 @@
         <v>23</v>
       </c>
       <c r="G1028" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H1028" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1028" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28111,10 +28105,10 @@
         <v>12</v>
       </c>
       <c r="H1029" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1029" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28134,10 +28128,10 @@
         <v>12</v>
       </c>
       <c r="H1030" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1030" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28145,7 +28139,7 @@
         <v>372</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>11</v>
@@ -28157,18 +28151,18 @@
         <v>12</v>
       </c>
       <c r="H1031" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1031" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>11</v>
@@ -28180,15 +28174,15 @@
         <v>12</v>
       </c>
       <c r="H1032" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1032" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1033" s="0" t="s">
         <v>161</v>
@@ -28203,18 +28197,18 @@
         <v>23</v>
       </c>
       <c r="H1033" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1033" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1034" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>11</v>
@@ -28226,15 +28220,15 @@
         <v>23</v>
       </c>
       <c r="H1034" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1034" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1035" s="0" t="s">
         <v>205</v>
@@ -28249,18 +28243,18 @@
         <v>23</v>
       </c>
       <c r="H1035" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1035" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1036" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C1036" s="0" t="s">
         <v>46</v>
@@ -28275,21 +28269,21 @@
         <v>12</v>
       </c>
       <c r="G1036" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1036" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1036" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1037" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C1037" s="0" t="s">
         <v>46</v>
@@ -28304,21 +28298,21 @@
         <v>12</v>
       </c>
       <c r="G1037" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1037" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I1037" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1038" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>11</v>
@@ -28330,10 +28324,10 @@
         <v>12</v>
       </c>
       <c r="H1038" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1038" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28353,10 +28347,10 @@
         <v>12</v>
       </c>
       <c r="H1039" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1039" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28376,10 +28370,10 @@
         <v>12</v>
       </c>
       <c r="H1040" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1040" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28402,13 +28396,13 @@
         <v>12</v>
       </c>
       <c r="G1041" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1041" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1041" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28416,7 +28410,7 @@
         <v>113</v>
       </c>
       <c r="B1042" s="0" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C1042" s="0" t="s">
         <v>46</v>
@@ -28431,21 +28425,21 @@
         <v>12</v>
       </c>
       <c r="G1042" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1042" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1042" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B1043" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C1043" s="0" t="s">
         <v>46</v>
@@ -28460,21 +28454,21 @@
         <v>12</v>
       </c>
       <c r="G1043" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1043" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1043" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1044" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1044" s="0" t="s">
         <v>11</v>
@@ -28486,15 +28480,15 @@
         <v>23</v>
       </c>
       <c r="H1044" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1044" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1045" s="0" t="s">
         <v>187</v>
@@ -28509,15 +28503,15 @@
         <v>23</v>
       </c>
       <c r="H1045" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1045" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1046" s="0" t="s">
         <v>45</v>
@@ -28535,18 +28529,18 @@
         <v>23</v>
       </c>
       <c r="G1046" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1046" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1046" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B1047" s="0" t="s">
         <v>122</v>
@@ -28564,21 +28558,21 @@
         <v>23</v>
       </c>
       <c r="G1047" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1047" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1047" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B1048" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C1048" s="0" t="s">
         <v>46</v>
@@ -28593,18 +28587,18 @@
         <v>23</v>
       </c>
       <c r="G1048" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1048" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1048" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1049" s="0" t="s">
         <v>132</v>
@@ -28622,13 +28616,13 @@
         <v>23</v>
       </c>
       <c r="G1049" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1049" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1049" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28648,10 +28642,10 @@
         <v>12</v>
       </c>
       <c r="H1050" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1050" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28671,10 +28665,10 @@
         <v>12</v>
       </c>
       <c r="H1051" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1051" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28697,13 +28691,13 @@
         <v>23</v>
       </c>
       <c r="G1052" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1052" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="H1052" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="I1052" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28726,18 +28720,18 @@
         <v>23</v>
       </c>
       <c r="G1053" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1053" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="H1053" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="I1053" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B1054" s="0" t="s">
         <v>366</v>
@@ -28755,21 +28749,21 @@
         <v>23</v>
       </c>
       <c r="G1054" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1054" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="H1054" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="I1054" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B1055" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C1055" s="0" t="s">
         <v>46</v>
@@ -28784,18 +28778,18 @@
         <v>23</v>
       </c>
       <c r="G1055" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1055" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="H1055" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="I1055" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1056" s="0" t="s">
         <v>161</v>
@@ -28810,18 +28804,18 @@
         <v>23</v>
       </c>
       <c r="H1056" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1056" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1057" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1057" s="0" t="s">
         <v>11</v>
@@ -28833,15 +28827,15 @@
         <v>23</v>
       </c>
       <c r="H1057" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1057" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1058" s="0" t="s">
         <v>205</v>
@@ -28856,18 +28850,18 @@
         <v>23</v>
       </c>
       <c r="H1058" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1058" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1059" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C1059" s="0" t="s">
         <v>46</v>
@@ -28882,21 +28876,21 @@
         <v>12</v>
       </c>
       <c r="G1059" s="0" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H1059" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1059" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1060" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C1060" s="0" t="s">
         <v>46</v>
@@ -28911,18 +28905,18 @@
         <v>12</v>
       </c>
       <c r="G1060" s="0" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H1060" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I1060" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1061" s="0" t="s">
         <v>161</v>
@@ -28937,15 +28931,15 @@
         <v>12</v>
       </c>
       <c r="H1061" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1061" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1062" s="0" t="s">
         <v>205</v>
@@ -28960,10 +28954,10 @@
         <v>12</v>
       </c>
       <c r="H1062" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1062" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28986,21 +28980,21 @@
         <v>23</v>
       </c>
       <c r="G1063" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1063" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1063" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1064" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C1064" s="0" t="s">
         <v>46</v>
@@ -29015,13 +29009,13 @@
         <v>23</v>
       </c>
       <c r="G1064" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1064" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1064" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29044,21 +29038,21 @@
         <v>23</v>
       </c>
       <c r="G1065" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1065" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1065" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1066" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1066" s="0" t="s">
         <v>46</v>
@@ -29073,18 +29067,18 @@
         <v>23</v>
       </c>
       <c r="G1066" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1066" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1066" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1067" s="0" t="s">
         <v>184</v>
@@ -29102,21 +29096,21 @@
         <v>23</v>
       </c>
       <c r="G1067" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1067" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1067" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1068" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1068" s="0" t="s">
         <v>11</v>
@@ -29128,18 +29122,18 @@
         <v>12</v>
       </c>
       <c r="H1068" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1068" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1069" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1069" s="0" t="s">
         <v>11</v>
@@ -29151,15 +29145,15 @@
         <v>12</v>
       </c>
       <c r="H1069" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1069" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1070" s="0" t="s">
         <v>187</v>
@@ -29174,15 +29168,15 @@
         <v>12</v>
       </c>
       <c r="H1070" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1070" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1071" s="0" t="s">
         <v>45</v>
@@ -29200,18 +29194,18 @@
         <v>12</v>
       </c>
       <c r="G1071" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1071" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1071" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B1072" s="0" t="s">
         <v>122</v>
@@ -29229,18 +29223,18 @@
         <v>12</v>
       </c>
       <c r="G1072" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1072" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1072" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1073" s="0" t="s">
         <v>132</v>
@@ -29258,13 +29252,13 @@
         <v>12</v>
       </c>
       <c r="G1073" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1073" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1073" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29284,15 +29278,15 @@
         <v>12</v>
       </c>
       <c r="H1074" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1074" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1075" s="0" t="s">
         <v>43</v>
@@ -29307,18 +29301,18 @@
         <v>12</v>
       </c>
       <c r="H1075" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1075" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1076" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1076" s="0" t="s">
         <v>46</v>
@@ -29333,18 +29327,18 @@
         <v>23</v>
       </c>
       <c r="G1076" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1076" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1076" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1077" s="0" t="s">
         <v>124</v>
@@ -29362,18 +29356,18 @@
         <v>23</v>
       </c>
       <c r="G1077" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1077" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1077" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1078" s="0" t="s">
         <v>187</v>
@@ -29391,13 +29385,13 @@
         <v>23</v>
       </c>
       <c r="G1078" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1078" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1078" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29420,21 +29414,21 @@
         <v>23</v>
       </c>
       <c r="G1079" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1079" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1079" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B1080" s="0" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C1080" s="0" t="s">
         <v>46</v>
@@ -29449,18 +29443,18 @@
         <v>23</v>
       </c>
       <c r="G1080" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1080" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1080" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1081" s="0" t="s">
         <v>157</v>
@@ -29475,18 +29469,18 @@
         <v>12</v>
       </c>
       <c r="H1081" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1081" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1082" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>11</v>
@@ -29498,15 +29492,15 @@
         <v>12</v>
       </c>
       <c r="H1082" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1082" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1083" s="0" t="s">
         <v>161</v>
@@ -29524,18 +29518,18 @@
         <v>23</v>
       </c>
       <c r="G1083" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1083" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1083" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1084" s="0" t="s">
         <v>204</v>
@@ -29553,18 +29547,18 @@
         <v>23</v>
       </c>
       <c r="G1084" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1084" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1084" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1085" s="0" t="s">
         <v>171</v>
@@ -29582,21 +29576,21 @@
         <v>23</v>
       </c>
       <c r="G1085" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1085" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1085" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B1086" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C1086" s="0" t="s">
         <v>46</v>
@@ -29611,13 +29605,13 @@
         <v>23</v>
       </c>
       <c r="G1086" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1086" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1086" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29640,13 +29634,13 @@
         <v>23</v>
       </c>
       <c r="G1087" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1087" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I1087" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29666,10 +29660,10 @@
         <v>12</v>
       </c>
       <c r="H1088" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1088" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29689,10 +29683,10 @@
         <v>12</v>
       </c>
       <c r="H1089" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1089" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29712,18 +29706,18 @@
         <v>12</v>
       </c>
       <c r="H1090" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1090" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B1091" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C1091" s="0" t="s">
         <v>46</v>
@@ -29738,13 +29732,13 @@
         <v>12</v>
       </c>
       <c r="G1091" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H1091" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1091" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29752,7 +29746,7 @@
         <v>113</v>
       </c>
       <c r="B1092" s="0" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C1092" s="0" t="s">
         <v>46</v>
@@ -29767,21 +29761,21 @@
         <v>12</v>
       </c>
       <c r="G1092" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H1092" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1092" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1093" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C1093" s="0" t="s">
         <v>46</v>
@@ -29796,13 +29790,13 @@
         <v>12</v>
       </c>
       <c r="G1093" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H1093" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1093" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29822,15 +29816,15 @@
         <v>23</v>
       </c>
       <c r="H1094" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1094" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1095" s="0" t="s">
         <v>43</v>
@@ -29845,18 +29839,18 @@
         <v>23</v>
       </c>
       <c r="H1095" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1095" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1096" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1096" s="0" t="s">
         <v>46</v>
@@ -29871,18 +29865,18 @@
         <v>23</v>
       </c>
       <c r="G1096" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H1096" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1096" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1097" s="0" t="s">
         <v>124</v>
@@ -29900,18 +29894,18 @@
         <v>23</v>
       </c>
       <c r="G1097" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H1097" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1097" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1098" s="0" t="s">
         <v>187</v>
@@ -29929,21 +29923,21 @@
         <v>23</v>
       </c>
       <c r="G1098" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H1098" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1098" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B1099" s="0" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C1099" s="0" t="s">
         <v>46</v>
@@ -29958,13 +29952,13 @@
         <v>23</v>
       </c>
       <c r="G1099" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H1099" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1099" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29984,10 +29978,10 @@
         <v>12</v>
       </c>
       <c r="H1100" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1100" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30007,18 +30001,18 @@
         <v>12</v>
       </c>
       <c r="H1101" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1101" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B1102" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C1102" s="0" t="s">
         <v>46</v>
@@ -30033,13 +30027,13 @@
         <v>23</v>
       </c>
       <c r="G1102" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H1102" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1102" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30062,13 +30056,13 @@
         <v>23</v>
       </c>
       <c r="G1103" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H1103" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1103" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30076,7 +30070,7 @@
         <v>239</v>
       </c>
       <c r="B1104" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C1104" s="0" t="s">
         <v>46</v>
@@ -30091,21 +30085,21 @@
         <v>23</v>
       </c>
       <c r="G1104" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H1104" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1104" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B1105" s="0" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C1105" s="0" t="s">
         <v>46</v>
@@ -30120,21 +30114,21 @@
         <v>23</v>
       </c>
       <c r="G1105" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H1105" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1105" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1106" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>11</v>
@@ -30146,15 +30140,15 @@
         <v>23</v>
       </c>
       <c r="H1106" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1106" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1107" s="0" t="s">
         <v>161</v>
@@ -30172,21 +30166,21 @@
         <v>32</v>
       </c>
       <c r="G1107" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1107" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1107" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1108" s="0" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C1108" s="0" t="s">
         <v>46</v>
@@ -30201,18 +30195,18 @@
         <v>32</v>
       </c>
       <c r="G1108" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1108" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1108" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1109" s="0" t="s">
         <v>171</v>
@@ -30230,18 +30224,18 @@
         <v>32</v>
       </c>
       <c r="G1109" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1109" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1109" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B1110" s="0" t="s">
         <v>366</v>
@@ -30259,21 +30253,21 @@
         <v>32</v>
       </c>
       <c r="G1110" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1110" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1110" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B1111" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C1111" s="0" t="s">
         <v>46</v>
@@ -30288,13 +30282,13 @@
         <v>32</v>
       </c>
       <c r="G1111" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1111" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1111" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30317,18 +30311,18 @@
         <v>32</v>
       </c>
       <c r="G1112" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1112" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I1112" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1113" s="0" t="s">
         <v>157</v>
@@ -30343,15 +30337,15 @@
         <v>12</v>
       </c>
       <c r="H1113" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1113" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1114" s="0" t="s">
         <v>161</v>
@@ -30369,18 +30363,18 @@
         <v>32</v>
       </c>
       <c r="G1114" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1114" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1114" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1115" s="0" t="s">
         <v>204</v>
@@ -30398,18 +30392,18 @@
         <v>32</v>
       </c>
       <c r="G1115" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1115" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1115" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1116" s="0" t="s">
         <v>171</v>
@@ -30427,21 +30421,21 @@
         <v>32</v>
       </c>
       <c r="G1116" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1116" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1116" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B1117" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C1117" s="0" t="s">
         <v>46</v>
@@ -30456,13 +30450,13 @@
         <v>32</v>
       </c>
       <c r="G1117" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1117" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1117" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30485,13 +30479,13 @@
         <v>32</v>
       </c>
       <c r="G1118" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1118" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1118" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30511,15 +30505,15 @@
         <v>12</v>
       </c>
       <c r="H1119" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1119" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1120" s="0" t="s">
         <v>43</v>
@@ -30534,18 +30528,18 @@
         <v>12</v>
       </c>
       <c r="H1120" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1120" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1121" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1121" s="0" t="s">
         <v>11</v>
@@ -30557,18 +30551,18 @@
         <v>12</v>
       </c>
       <c r="H1121" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1121" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1122" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1122" s="0" t="s">
         <v>46</v>
@@ -30583,18 +30577,18 @@
         <v>12</v>
       </c>
       <c r="G1122" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1122" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1122" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1123" s="0" t="s">
         <v>124</v>
@@ -30612,18 +30606,18 @@
         <v>12</v>
       </c>
       <c r="G1123" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1123" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1123" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1124" s="0" t="s">
         <v>187</v>
@@ -30641,21 +30635,21 @@
         <v>12</v>
       </c>
       <c r="G1124" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1124" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1124" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B1125" s="0" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C1125" s="0" t="s">
         <v>46</v>
@@ -30670,21 +30664,21 @@
         <v>12</v>
       </c>
       <c r="G1125" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1125" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I1125" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1126" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C1126" s="0" t="s">
         <v>11</v>
@@ -30696,18 +30690,18 @@
         <v>12</v>
       </c>
       <c r="H1126" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1126" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="0" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B1127" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C1127" s="0" t="s">
         <v>46</v>
@@ -30722,18 +30716,18 @@
         <v>32</v>
       </c>
       <c r="G1127" s="0" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H1127" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1127" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B1128" s="0" t="s">
         <v>187</v>
@@ -30751,18 +30745,18 @@
         <v>32</v>
       </c>
       <c r="G1128" s="0" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H1128" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1128" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B1129" s="0" t="s">
         <v>375</v>
@@ -30780,21 +30774,21 @@
         <v>32</v>
       </c>
       <c r="G1129" s="0" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H1129" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1129" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="0" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B1130" s="0" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C1130" s="0" t="s">
         <v>46</v>
@@ -30809,21 +30803,21 @@
         <v>32</v>
       </c>
       <c r="G1130" s="0" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H1130" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1130" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B1131" s="0" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C1131" s="0" t="s">
         <v>46</v>
@@ -30838,21 +30832,21 @@
         <v>32</v>
       </c>
       <c r="G1131" s="0" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H1131" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1131" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1132" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C1132" s="0" t="s">
         <v>11</v>
@@ -30864,18 +30858,18 @@
         <v>12</v>
       </c>
       <c r="H1132" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1132" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1133" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1133" s="0" t="s">
         <v>11</v>
@@ -30887,15 +30881,15 @@
         <v>12</v>
       </c>
       <c r="H1133" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1133" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1134" s="0" t="s">
         <v>161</v>
@@ -30913,21 +30907,21 @@
         <v>23</v>
       </c>
       <c r="G1134" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H1134" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1134" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1135" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C1135" s="0" t="s">
         <v>46</v>
@@ -30942,18 +30936,18 @@
         <v>23</v>
       </c>
       <c r="G1135" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H1135" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1135" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B1136" s="0" t="s">
         <v>366</v>
@@ -30971,21 +30965,21 @@
         <v>23</v>
       </c>
       <c r="G1136" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H1136" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1136" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="0" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1137" s="0" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C1137" s="0" t="s">
         <v>46</v>
@@ -31000,21 +30994,21 @@
         <v>23</v>
       </c>
       <c r="G1137" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H1137" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1137" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1138" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C1138" s="0" t="s">
         <v>11</v>
@@ -31026,15 +31020,15 @@
         <v>12</v>
       </c>
       <c r="H1138" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1138" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B1139" s="0" t="s">
         <v>122</v>
@@ -31052,18 +31046,18 @@
         <v>32</v>
       </c>
       <c r="G1139" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1139" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1139" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1140" s="0" t="s">
         <v>124</v>
@@ -31081,18 +31075,18 @@
         <v>32</v>
       </c>
       <c r="G1140" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1140" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1140" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1141" s="0" t="s">
         <v>43</v>
@@ -31110,18 +31104,18 @@
         <v>32</v>
       </c>
       <c r="G1141" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1141" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1141" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1142" s="0" t="s">
         <v>132</v>
@@ -31139,18 +31133,18 @@
         <v>32</v>
       </c>
       <c r="G1142" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1142" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1142" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B1143" s="0" t="s">
         <v>375</v>
@@ -31168,21 +31162,21 @@
         <v>32</v>
       </c>
       <c r="G1143" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1143" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1143" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1144" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1144" s="0" t="s">
         <v>11</v>
@@ -31194,18 +31188,18 @@
         <v>12</v>
       </c>
       <c r="H1144" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1144" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1145" s="0" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C1145" s="0" t="s">
         <v>46</v>
@@ -31220,13 +31214,13 @@
         <v>32</v>
       </c>
       <c r="G1145" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1145" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1145" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31249,21 +31243,21 @@
         <v>32</v>
       </c>
       <c r="G1146" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1146" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1146" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1147" s="0" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C1147" s="0" t="s">
         <v>46</v>
@@ -31278,21 +31272,21 @@
         <v>32</v>
       </c>
       <c r="G1147" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1147" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1147" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1148" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C1148" s="0" t="s">
         <v>46</v>
@@ -31307,18 +31301,18 @@
         <v>32</v>
       </c>
       <c r="G1148" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1148" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1148" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1149" s="0" t="s">
         <v>171</v>
@@ -31336,18 +31330,18 @@
         <v>32</v>
       </c>
       <c r="G1149" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1149" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I1149" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B1150" s="0" t="s">
         <v>122</v>
@@ -31362,10 +31356,10 @@
         <v>12</v>
       </c>
       <c r="H1150" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1150" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31373,7 +31367,7 @@
         <v>113</v>
       </c>
       <c r="B1151" s="0" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C1151" s="0" t="s">
         <v>46</v>
@@ -31388,21 +31382,21 @@
         <v>32</v>
       </c>
       <c r="G1151" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1151" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1151" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1152" s="0" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C1152" s="0" t="s">
         <v>46</v>
@@ -31417,21 +31411,21 @@
         <v>32</v>
       </c>
       <c r="G1152" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1152" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1152" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1153" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1153" s="0" t="s">
         <v>46</v>
@@ -31446,21 +31440,21 @@
         <v>32</v>
       </c>
       <c r="G1153" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1153" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1153" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1154" s="0" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C1154" s="0" t="s">
         <v>46</v>
@@ -31475,18 +31469,18 @@
         <v>32</v>
       </c>
       <c r="G1154" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1154" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1154" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1155" s="0" t="s">
         <v>132</v>
@@ -31504,18 +31498,18 @@
         <v>32</v>
       </c>
       <c r="G1155" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1155" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1155" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B1156" s="0" t="s">
         <v>375</v>
@@ -31533,21 +31527,21 @@
         <v>32</v>
       </c>
       <c r="G1156" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1156" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1156" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B1157" s="0" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C1157" s="0" t="s">
         <v>46</v>
@@ -31562,21 +31556,21 @@
         <v>32</v>
       </c>
       <c r="G1157" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1157" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1157" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B1158" s="0" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C1158" s="0" t="s">
         <v>46</v>
@@ -31591,18 +31585,18 @@
         <v>32</v>
       </c>
       <c r="G1158" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1158" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1158" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1159" s="0" t="s">
         <v>159</v>
@@ -31617,18 +31611,18 @@
         <v>12</v>
       </c>
       <c r="H1159" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1159" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B1160" s="0" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C1160" s="0" t="s">
         <v>11</v>
@@ -31640,18 +31634,18 @@
         <v>12</v>
       </c>
       <c r="H1160" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1160" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1161" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1161" s="0" t="s">
         <v>11</v>
@@ -31663,18 +31657,18 @@
         <v>12</v>
       </c>
       <c r="H1161" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1161" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1162" s="0" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C1162" s="0" t="s">
         <v>46</v>
@@ -31689,13 +31683,13 @@
         <v>12</v>
       </c>
       <c r="G1162" s="0" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H1162" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1162" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31718,18 +31712,18 @@
         <v>12</v>
       </c>
       <c r="G1163" s="0" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H1163" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1163" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1164" s="0" t="s">
         <v>161</v>
@@ -31747,18 +31741,18 @@
         <v>12</v>
       </c>
       <c r="G1164" s="0" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H1164" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1164" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B1165" s="0" t="s">
         <v>366</v>
@@ -31776,18 +31770,18 @@
         <v>12</v>
       </c>
       <c r="G1165" s="0" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H1165" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I1165" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1166" s="0" t="s">
         <v>128</v>
@@ -31802,15 +31796,15 @@
         <v>12</v>
       </c>
       <c r="H1166" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1166" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1167" s="0" t="s">
         <v>132</v>
@@ -31825,15 +31819,15 @@
         <v>12</v>
       </c>
       <c r="H1167" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1167" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1168" s="0" t="s">
         <v>45</v>
@@ -31851,18 +31845,18 @@
         <v>23</v>
       </c>
       <c r="G1168" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1168" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1168" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B1169" s="0" t="s">
         <v>122</v>
@@ -31880,21 +31874,21 @@
         <v>23</v>
       </c>
       <c r="G1169" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1169" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1169" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1170" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C1170" s="0" t="s">
         <v>46</v>
@@ -31909,18 +31903,18 @@
         <v>23</v>
       </c>
       <c r="G1170" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1170" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1170" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1171" s="0" t="s">
         <v>124</v>
@@ -31938,21 +31932,21 @@
         <v>23</v>
       </c>
       <c r="G1171" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1171" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1171" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B1172" s="0" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C1172" s="0" t="s">
         <v>46</v>
@@ -31967,13 +31961,13 @@
         <v>23</v>
       </c>
       <c r="G1172" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1172" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1172" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31993,18 +31987,18 @@
         <v>12</v>
       </c>
       <c r="H1173" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1173" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1174" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1174" s="0" t="s">
         <v>11</v>
@@ -32016,18 +32010,18 @@
         <v>12</v>
       </c>
       <c r="H1174" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1174" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1175" s="0" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C1175" s="0" t="s">
         <v>46</v>
@@ -32042,18 +32036,18 @@
         <v>23</v>
       </c>
       <c r="G1175" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1175" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1175" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1176" s="0" t="s">
         <v>159</v>
@@ -32071,47 +32065,47 @@
         <v>23</v>
       </c>
       <c r="G1176" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1176" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1176" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1177" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1177" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1177" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1177" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1177" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1177" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1177" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="C1177" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1177" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1177" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1177" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1177" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="H1177" s="0" t="s">
-        <v>626</v>
-      </c>
       <c r="I1177" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1178" s="0" t="s">
         <v>161</v>
@@ -32129,18 +32123,18 @@
         <v>23</v>
       </c>
       <c r="G1178" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1178" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1178" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1179" s="0" t="s">
         <v>163</v>
@@ -32158,18 +32152,18 @@
         <v>23</v>
       </c>
       <c r="G1179" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1179" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1179" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1180" s="0" t="s">
         <v>171</v>
@@ -32187,13 +32181,13 @@
         <v>23</v>
       </c>
       <c r="G1180" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1180" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I1180" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32213,18 +32207,18 @@
         <v>12</v>
       </c>
       <c r="H1181" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1181" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1182" s="0" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C1182" s="0" t="s">
         <v>46</v>
@@ -32239,18 +32233,18 @@
         <v>32</v>
       </c>
       <c r="G1182" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1182" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1182" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1183" s="0" t="s">
         <v>161</v>
@@ -32268,18 +32262,18 @@
         <v>32</v>
       </c>
       <c r="G1183" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1183" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1183" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1184" s="0" t="s">
         <v>171</v>
@@ -32297,18 +32291,18 @@
         <v>32</v>
       </c>
       <c r="G1184" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1184" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1184" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1185" s="0" t="s">
         <v>159</v>
@@ -32326,18 +32320,18 @@
         <v>32</v>
       </c>
       <c r="G1185" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1185" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1185" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1186" s="0" t="s">
         <v>163</v>
@@ -32355,21 +32349,21 @@
         <v>32</v>
       </c>
       <c r="G1186" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1186" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1186" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1187" s="0" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C1187" s="0" t="s">
         <v>46</v>
@@ -32384,21 +32378,21 @@
         <v>32</v>
       </c>
       <c r="G1187" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1187" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1187" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1188" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C1188" s="0" t="s">
         <v>11</v>
@@ -32410,15 +32404,15 @@
         <v>12</v>
       </c>
       <c r="H1188" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1188" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1189" s="0" t="s">
         <v>128</v>
@@ -32433,15 +32427,15 @@
         <v>12</v>
       </c>
       <c r="H1189" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1189" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1190" s="0" t="s">
         <v>132</v>
@@ -32456,15 +32450,15 @@
         <v>12</v>
       </c>
       <c r="H1190" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1190" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1191" s="0" t="s">
         <v>45</v>
@@ -32482,21 +32476,21 @@
         <v>12</v>
       </c>
       <c r="G1191" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1191" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1191" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B1192" s="0" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C1192" s="0" t="s">
         <v>46</v>
@@ -32511,21 +32505,21 @@
         <v>12</v>
       </c>
       <c r="G1192" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1192" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1192" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="0" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B1193" s="0" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C1193" s="0" t="s">
         <v>46</v>
@@ -32540,13 +32534,13 @@
         <v>12</v>
       </c>
       <c r="G1193" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1193" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I1193" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/ProgrammeData.xlsx
+++ b/ProgrammeData.xlsx
@@ -550,7 +550,7 @@
     <t xml:space="preserve">F2P1-CSA_group_2</t>
   </si>
   <si>
-    <t xml:space="preserve">BSc Computer Science (Cyber Secuirty)</t>
+    <t xml:space="preserve">BSc Computer Science (Cyber Security)</t>
   </si>
   <si>
     <t xml:space="preserve">F2C3-CCS</t>
@@ -2053,11 +2053,11 @@
   </sheetPr>
   <dimension ref="A1:I1193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A765" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D784" activeCellId="0" sqref="D784"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H129" activeCellId="0" sqref="H129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.77"/>
